--- a/圧力センサ構成曲線.xlsx
+++ b/圧力センサ構成曲線.xlsx
@@ -1067,11 +1067,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="-1979221808"/>
-        <c:axId val="-1978205376"/>
+        <c:axId val="1056304432"/>
+        <c:axId val="898269664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1979221808"/>
+        <c:axId val="1056304432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1175,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1978205376"/>
+        <c:crossAx val="898269664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1183,7 +1183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1978205376"/>
+        <c:axId val="898269664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1290,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979221808"/>
+        <c:crossAx val="1056304432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2313,11 +2313,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="-1978174512"/>
-        <c:axId val="-1978170480"/>
+        <c:axId val="898370576"/>
+        <c:axId val="898355056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1978174512"/>
+        <c:axId val="898370576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2421,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1978170480"/>
+        <c:crossAx val="898355056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2429,7 +2429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1978170480"/>
+        <c:axId val="898355056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1200.0"/>
@@ -2537,7 +2537,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1978174512"/>
+        <c:crossAx val="898370576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3734,16 +3734,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3764,16 +3764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35278</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>136878</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>143933</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4060,7 +4060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/圧力センサ構成曲線.xlsx
+++ b/圧力センサ構成曲線.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>g</t>
     <phoneticPr fontId="1"/>
@@ -1067,11 +1067,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="1056304432"/>
-        <c:axId val="898269664"/>
+        <c:axId val="-1275989808"/>
+        <c:axId val="-1741957632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1056304432"/>
+        <c:axId val="-1275989808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1175,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="898269664"/>
+        <c:crossAx val="-1741957632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1183,7 +1183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="898269664"/>
+        <c:axId val="-1741957632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1290,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056304432"/>
+        <c:crossAx val="-1275989808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1303,7 +1303,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1405,22 +1405,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="3600"/>
               <a:t>圧力センサ構成曲線</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="3600"/>
               <a:t>(</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="3600"/>
               <a:t>右</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="3600"/>
               <a:t>)</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1477,7 +1477,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1643,7 +1643,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1809,7 +1809,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1975,7 +1975,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2141,7 +2141,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2313,11 +2313,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="898370576"/>
-        <c:axId val="898355056"/>
+        <c:axId val="-1167154320"/>
+        <c:axId val="-1174345600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="898370576"/>
+        <c:axId val="-1167154320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,7 +2330,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2343,14 +2343,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
                   <a:t>重りの重さ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
                   <a:t>(g)</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2368,7 +2368,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2406,7 +2406,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2421,7 +2421,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="898355056"/>
+        <c:crossAx val="-1174345600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2429,7 +2429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="898355056"/>
+        <c:axId val="-1174345600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1200.0"/>
@@ -2458,7 +2458,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2471,7 +2471,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
                   <a:t>アナログ信号</a:t>
                 </a:r>
               </a:p>
@@ -2491,7 +2491,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2522,7 +2522,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2537,7 +2537,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="898370576"/>
+        <c:crossAx val="-1167154320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2550,7 +2550,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2565,7 +2565,2474 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="3600"/>
+              <a:t>圧力センサ構成曲線</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="3600"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="3600"/>
+              <a:t>右足</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="3600"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>親指</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>108.584680432645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205.55662027833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295.5716465863454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>415.3291759918616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>509.6279342240493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>605.8851298026999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>654.7673068893529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>794.3922033898306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>917.409356223176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>980.1135637149029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1097.207103825137</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1206.125856353591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1295.009386845039</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1431.34768361582</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.912787258248</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1607.059540229885</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1654.944064665127</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1813.670316529895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1888.571924439197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1990.107199046484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>小指</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$2:$AB$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>82.50078431372549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>214.4775124378109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>286.4888866599799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>396.6991878172589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>481.1354098360655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>596.1695435684647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>704.1624134312697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>824.852348565356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>896.6869807280514</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>990.6433513513512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1129.631929824561</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1206.125856353591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1328.750827740492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1396.917657657658</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.912787258248</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1607.059540229885</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1666.984393063584</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1764.318576429405</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1888.571924439197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2028.683923444976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>親指下</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$2:$AD$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>108.584680432645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205.55662027833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>313.7919919517102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>415.3291759918616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>481.1354098360655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>615.6209147609148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>704.1624134312697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>814.6774097664543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>927.8039312567133</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>990.6433513513512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1107.991728665208</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1173.198325991189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1306.231428571429</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1396.917657657658</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1477.619137343927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1595.157129735936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1679.052592592592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1813.670316529895</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1901.158817966903</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1951.805368171021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>小指下</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$2:$AF$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.8114093264249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>209.8624393063584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>290.369202988792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>394.2842312925169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>495.4895287187039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>607.9510862619808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>683.0169915966387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>807.0408363636363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>928.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1011.605501022495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1102.639871244635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1193.976651685393</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1299.389763593381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1439.031360201511</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1468.009183673469</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1585.210107238606</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1679.506935933148</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1796.700495626822</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1916.953414634146</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2003.424591194968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>かかと</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AH$2:$AH$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>99.87833505687695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202.6797129735936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>307.4088874841972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>407.7875515818432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>483.8546131386861</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>612.5689743589744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>703.675894378194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>822.0855229357799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>891.6995602294455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1011.605501022495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1110.982413793103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1193.976651685393</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1226.368538812785</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1399.667425742574</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1491.729175257732</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1559.55450928382</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.678314606742</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1796.700495626822</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1916.953414634146</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1994.533510971787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1172828128"/>
+        <c:axId val="-1736899936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1172828128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:t>おもりの重さ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
+                  <a:t>(g)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1736899936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1736899936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:t>センサ値より算出した荷重</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
+                  <a:t>(g)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1172828128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="3600"/>
+              <a:t>圧力センサ構成曲線</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="3600"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="3600"/>
+              <a:t>右足</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="3600"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="3600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>親指</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$23:$Z$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.20516451732115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.74670903270512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.89069476850788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.73434130490955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.12312456861108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.623824410998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.41723826623939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.39622250275723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.4261430103453</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.00942862544418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.7008392130569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.92509456627574</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.0044200050229</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.79558868649099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.77094608539708</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91.8367931509693</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.57319529140447</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103.6437428319443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>107.9240593354994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113.7263795222813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>小指</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$23:$AB$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.71457794446653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.25650105189513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.37165267721224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.66971468245644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.49489487141274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.0686189186077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.23996391429546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.1368935742429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.24194512327123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.61116235396169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.5537836520908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.92509456627574</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75.9326035293795</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79.82805537926214</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.77094608539708</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91.8367931509693</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.26125016486652</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100.8234953963075</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>107.9240593354994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>115.9308794616672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>親指下</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$23:$AD$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.20516451732115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.74670903270512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.93191200195206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.73434130490955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.49489487141274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.18018417676126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.23996391429546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.55543798631563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.02014989892058</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.61116235396169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.317135831729</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.04342265607907</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.64571318611472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79.82805537926214</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.43981052049664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91.15661971422505</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.95089775794301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103.6437428319443</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>108.6433481411599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>111.5375886085918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>小指下</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$23:$AF$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.818100141692355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.99276874706143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.59339667556993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.5317099245247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.31517328281542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.7418852614272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.03159068200115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.11903946191716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.07421380713857</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.80906234158324</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.01129935796879</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.23081786517575</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.25474038413171</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.23467896259751</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.89064149139022</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.58818859845903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.97686159708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102.6739878894103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>109.5459438886859</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>114.48741329697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>かかと</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AH$23:$AH$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.707632957749352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.58230570199729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.56714403289463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.30336872198578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.65028607191703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.0057784298765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.21216136652247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.9787809550976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.9569347093933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.80906234158324</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.48804109354085</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.23081786517575</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.08187998417</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79.98519323041575</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.24614071598963</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89.12207749083879</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97.18671815515722</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102.6739878894103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>109.5459438886859</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>113.9793249064004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1014476048"/>
+        <c:axId val="-1014951712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1014476048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1014951712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1014951712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:t>圧力</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
+                  <a:t>(P)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1014476048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2698,6 +5165,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3730,20 +6277,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>486834</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>588434</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3764,16 +7343,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>35278</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>172470</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>136878</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>143933</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>465668</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70556</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3787,6 +7366,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1095176</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1088121</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>92507</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>595489</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>443403</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9879</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="グラフ 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4058,15 +7697,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4085,6 +7724,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4093,9 +7733,30 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="X1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -4114,8 +7775,46 @@
       <c r="F2">
         <v>975</v>
       </c>
+      <c r="X2">
+        <v>100</v>
+      </c>
+      <c r="Y2">
+        <v>1017</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Y2:Z23" si="0">880.79/(0.1*(Y2*5/1024)/(5-Y2*5/1024))+47.96</f>
+        <v>108.58468043264503</v>
+      </c>
+      <c r="AA2">
+        <v>1020</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AB21" si="1">880.79/(0.1*(AA2*5/1024)/(5-AA2*5/1024))+47.96</f>
+        <v>82.500784313725489</v>
+      </c>
+      <c r="AC2">
+        <v>1017</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" ref="AD2:AD21" si="2">880.79/(0.1*(AC2*5/1024)/(5-AC2*5/1024))+47.96</f>
+        <v>108.58468043264503</v>
+      </c>
+      <c r="AE2">
+        <v>965</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AF21" si="3">880.79/(1*(AE2*5/1024)/(5-AE2*5/1024))+47.96</f>
+        <v>101.81140932642487</v>
+      </c>
+      <c r="AG2">
+        <v>967</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" ref="AH2:AH21" si="4">880.79/(1*(AG2*5/1024)/(5-AG2*5/1024))+47.96</f>
+        <v>99.878335056876949</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>200</v>
       </c>
@@ -4134,8 +7833,46 @@
       <c r="F3">
         <v>873</v>
       </c>
+      <c r="X3">
+        <v>200</v>
+      </c>
+      <c r="Y3">
+        <v>1006</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>205.55662027833003</v>
+      </c>
+      <c r="AA3">
+        <v>1005</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="1"/>
+        <v>214.47751243781093</v>
+      </c>
+      <c r="AC3">
+        <v>1006</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="2"/>
+        <v>205.55662027833003</v>
+      </c>
+      <c r="AE3">
+        <v>865</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="3"/>
+        <v>209.86243930635837</v>
+      </c>
+      <c r="AG3">
+        <v>871</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="4"/>
+        <v>202.67971297359355</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>300</v>
       </c>
@@ -4154,8 +7891,46 @@
       <c r="F4">
         <v>786</v>
       </c>
+      <c r="X4">
+        <v>300</v>
+      </c>
+      <c r="Y4">
+        <v>996</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>295.57164658634537</v>
+      </c>
+      <c r="AA4">
+        <v>997</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="1"/>
+        <v>286.48888665997993</v>
+      </c>
+      <c r="AC4">
+        <v>994</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="2"/>
+        <v>313.7919919517102</v>
+      </c>
+      <c r="AE4">
+        <v>803</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="3"/>
+        <v>290.36920298879204</v>
+      </c>
+      <c r="AG4">
+        <v>791</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="4"/>
+        <v>307.40888748419718</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>400</v>
       </c>
@@ -4174,8 +7949,46 @@
       <c r="F5">
         <v>732</v>
       </c>
+      <c r="X5">
+        <v>400</v>
+      </c>
+      <c r="Y5">
+        <v>983</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>415.32917599186163</v>
+      </c>
+      <c r="AA5">
+        <v>985</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="1"/>
+        <v>396.69918781725886</v>
+      </c>
+      <c r="AC5">
+        <v>983</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="2"/>
+        <v>415.32917599186163</v>
+      </c>
+      <c r="AE5">
+        <v>735</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="3"/>
+        <v>394.28423129251695</v>
+      </c>
+      <c r="AG5">
+        <v>727</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="4"/>
+        <v>407.78755158184316</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
@@ -4194,8 +8007,46 @@
       <c r="F6">
         <v>679</v>
       </c>
+      <c r="X6">
+        <v>500</v>
+      </c>
+      <c r="Y6">
+        <v>973</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>509.62793422404928</v>
+      </c>
+      <c r="AA6">
+        <v>976</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="1"/>
+        <v>481.13540983606555</v>
+      </c>
+      <c r="AC6">
+        <v>976</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="2"/>
+        <v>481.13540983606555</v>
+      </c>
+      <c r="AE6">
+        <v>679</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="3"/>
+        <v>495.48952871870392</v>
+      </c>
+      <c r="AG6">
+        <v>685</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="4"/>
+        <v>483.85461313868609</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>600</v>
       </c>
@@ -4214,8 +8065,46 @@
       <c r="F7">
         <v>628</v>
       </c>
+      <c r="X7">
+        <v>600</v>
+      </c>
+      <c r="Y7">
+        <v>963</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>605.88512980269991</v>
+      </c>
+      <c r="AA7">
+        <v>964</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
+        <v>596.16954356846475</v>
+      </c>
+      <c r="AC7">
+        <v>962</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="2"/>
+        <v>615.62091476091484</v>
+      </c>
+      <c r="AE7">
+        <v>626</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="3"/>
+        <v>607.95108626198078</v>
+      </c>
+      <c r="AG7">
+        <v>624</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="4"/>
+        <v>612.5689743589744</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>700</v>
       </c>
@@ -4234,8 +8123,46 @@
       <c r="F8">
         <v>588</v>
       </c>
+      <c r="X8">
+        <v>700</v>
+      </c>
+      <c r="Y8">
+        <v>958</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>654.76730688935288</v>
+      </c>
+      <c r="AA8">
+        <v>953</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="1"/>
+        <v>704.16241343126967</v>
+      </c>
+      <c r="AC8">
+        <v>953</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>704.16241343126967</v>
+      </c>
+      <c r="AE8">
+        <v>595</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="3"/>
+        <v>683.01699159663872</v>
+      </c>
+      <c r="AG8">
+        <v>587</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="4"/>
+        <v>703.67589437819424</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>800</v>
       </c>
@@ -4254,8 +8181,46 @@
       <c r="F9">
         <v>555</v>
       </c>
+      <c r="X9">
+        <v>800</v>
+      </c>
+      <c r="Y9">
+        <v>944</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>794.39220338983057</v>
+      </c>
+      <c r="AA9">
+        <v>941</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="1"/>
+        <v>824.85234856535601</v>
+      </c>
+      <c r="AC9">
+        <v>942</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>814.67740976645439</v>
+      </c>
+      <c r="AE9">
+        <v>550</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="3"/>
+        <v>807.04083636363634</v>
+      </c>
+      <c r="AG9">
+        <v>545</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="4"/>
+        <v>822.08552293577986</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>900</v>
       </c>
@@ -4274,8 +8239,46 @@
       <c r="F10">
         <v>521</v>
       </c>
+      <c r="X10">
+        <v>900</v>
+      </c>
+      <c r="Y10">
+        <v>932</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>917.40935622317602</v>
+      </c>
+      <c r="AA10">
+        <v>934</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="1"/>
+        <v>896.68698072805148</v>
+      </c>
+      <c r="AC10">
+        <v>931</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>927.80393125671333</v>
+      </c>
+      <c r="AE10">
+        <v>512</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="3"/>
+        <v>928.75</v>
+      </c>
+      <c r="AG10">
+        <v>523</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="4"/>
+        <v>891.69956022944552</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -4294,8 +8297,46 @@
       <c r="F11">
         <v>489</v>
       </c>
+      <c r="X11">
+        <v>1000</v>
+      </c>
+      <c r="Y11">
+        <v>926</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>980.11356371490285</v>
+      </c>
+      <c r="AA11">
+        <v>925</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="1"/>
+        <v>990.64335135135127</v>
+      </c>
+      <c r="AC11">
+        <v>925</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>990.64335135135127</v>
+      </c>
+      <c r="AE11">
+        <v>489</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="3"/>
+        <v>1011.6055010224949</v>
+      </c>
+      <c r="AG11">
+        <v>489</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="4"/>
+        <v>1011.6055010224949</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -4314,8 +8355,46 @@
       <c r="F12">
         <v>470</v>
       </c>
+      <c r="X12">
+        <v>1100</v>
+      </c>
+      <c r="Y12">
+        <v>915</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>1097.2071038251368</v>
+      </c>
+      <c r="AA12">
+        <v>912</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="1"/>
+        <v>1129.6319298245614</v>
+      </c>
+      <c r="AC12">
+        <v>914</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="2"/>
+        <v>1107.9917286652078</v>
+      </c>
+      <c r="AE12">
+        <v>466</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="3"/>
+        <v>1102.6398712446353</v>
+      </c>
+      <c r="AG12">
+        <v>464</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="4"/>
+        <v>1110.9824137931034</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -4334,8 +8413,46 @@
       <c r="F13">
         <v>444</v>
       </c>
+      <c r="X13">
+        <v>1200</v>
+      </c>
+      <c r="Y13">
+        <v>905</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>1206.1258563535912</v>
+      </c>
+      <c r="AA13">
+        <v>905</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="1"/>
+        <v>1206.1258563535912</v>
+      </c>
+      <c r="AC13">
+        <v>908</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="2"/>
+        <v>1173.1983259911894</v>
+      </c>
+      <c r="AE13">
+        <v>445</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="3"/>
+        <v>1193.9766516853931</v>
+      </c>
+      <c r="AG13">
+        <v>445</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="4"/>
+        <v>1193.9766516853931</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -4354,8 +8471,46 @@
       <c r="F14">
         <v>424</v>
       </c>
+      <c r="X14">
+        <v>1300</v>
+      </c>
+      <c r="Y14">
+        <v>897</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>1295.009386845039</v>
+      </c>
+      <c r="AA14">
+        <v>894</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>1328.750827740492</v>
+      </c>
+      <c r="AC14">
+        <v>896</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="2"/>
+        <v>1306.2314285714285</v>
+      </c>
+      <c r="AE14">
+        <v>423</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="3"/>
+        <v>1299.3897635933806</v>
+      </c>
+      <c r="AG14">
+        <v>438</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="4"/>
+        <v>1226.3685388127853</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -4374,8 +8529,46 @@
       <c r="F15">
         <v>404</v>
       </c>
+      <c r="X15">
+        <v>1400</v>
+      </c>
+      <c r="Y15">
+        <v>885</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>1431.3476836158191</v>
+      </c>
+      <c r="AA15">
+        <v>888</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>1396.9176576576576</v>
+      </c>
+      <c r="AC15">
+        <v>888</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="2"/>
+        <v>1396.9176576576576</v>
+      </c>
+      <c r="AE15">
+        <v>397</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="3"/>
+        <v>1439.0313602015112</v>
+      </c>
+      <c r="AG15">
+        <v>404</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="4"/>
+        <v>1399.6674257425743</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -4394,8 +8587,46 @@
       <c r="F16">
         <v>385</v>
       </c>
+      <c r="X16">
+        <v>1500</v>
+      </c>
+      <c r="Y16">
+        <v>879</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>1500.912787258248</v>
+      </c>
+      <c r="AA16">
+        <v>879</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="1"/>
+        <v>1500.912787258248</v>
+      </c>
+      <c r="AC16">
+        <v>881</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="2"/>
+        <v>1477.6191373439274</v>
+      </c>
+      <c r="AE16">
+        <v>392</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="3"/>
+        <v>1468.0091836734694</v>
+      </c>
+      <c r="AG16">
+        <v>388</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="4"/>
+        <v>1491.7291752577321</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -4414,8 +8645,46 @@
       <c r="F17">
         <v>373</v>
       </c>
+      <c r="X17">
+        <v>1600</v>
+      </c>
+      <c r="Y17">
+        <v>870</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>1607.059540229885</v>
+      </c>
+      <c r="AA17">
+        <v>870</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="1"/>
+        <v>1607.059540229885</v>
+      </c>
+      <c r="AC17">
+        <v>871</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="2"/>
+        <v>1595.1571297359358</v>
+      </c>
+      <c r="AE17">
+        <v>373</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="3"/>
+        <v>1585.2101072386058</v>
+      </c>
+      <c r="AG17">
+        <v>377</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>1559.5545092838197</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -4434,8 +8703,46 @@
       <c r="F18">
         <v>356</v>
       </c>
+      <c r="X18">
+        <v>1700</v>
+      </c>
+      <c r="Y18">
+        <v>866</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="0"/>
+        <v>1654.9440646651269</v>
+      </c>
+      <c r="AA18">
+        <v>865</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="1"/>
+        <v>1666.9843930635839</v>
+      </c>
+      <c r="AC18">
+        <v>864</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="2"/>
+        <v>1679.0525925925924</v>
+      </c>
+      <c r="AE18">
+        <v>359</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="3"/>
+        <v>1679.5069359331476</v>
+      </c>
+      <c r="AG18">
+        <v>356</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="4"/>
+        <v>1700.6783146067417</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -4454,8 +8761,46 @@
       <c r="F19">
         <v>342</v>
       </c>
+      <c r="X19">
+        <v>1800</v>
+      </c>
+      <c r="Y19">
+        <v>853</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="0"/>
+        <v>1813.6703165298945</v>
+      </c>
+      <c r="AA19">
+        <v>857</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="1"/>
+        <v>1764.3185764294049</v>
+      </c>
+      <c r="AC19">
+        <v>853</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="2"/>
+        <v>1813.6703165298945</v>
+      </c>
+      <c r="AE19">
+        <v>343</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="3"/>
+        <v>1796.700495626822</v>
+      </c>
+      <c r="AG19">
+        <v>343</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="4"/>
+        <v>1796.700495626822</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -4474,8 +8819,46 @@
       <c r="F20">
         <v>329</v>
       </c>
+      <c r="X20">
+        <v>1900</v>
+      </c>
+      <c r="Y20">
+        <v>847</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="0"/>
+        <v>1888.5719244391971</v>
+      </c>
+      <c r="AA20">
+        <v>847</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="1"/>
+        <v>1888.5719244391971</v>
+      </c>
+      <c r="AC20">
+        <v>846</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="2"/>
+        <v>1901.1588179669029</v>
+      </c>
+      <c r="AE20">
+        <v>328</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="3"/>
+        <v>1916.9534146341464</v>
+      </c>
+      <c r="AG20">
+        <v>328</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="4"/>
+        <v>1916.9534146341464</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -4494,8 +8877,222 @@
       <c r="F21">
         <v>318</v>
       </c>
+      <c r="X21">
+        <v>2000</v>
+      </c>
+      <c r="Y21">
+        <v>839</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="0"/>
+        <v>1990.1071990464841</v>
+      </c>
+      <c r="AA21">
+        <v>836</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="1"/>
+        <v>2028.6839234449762</v>
+      </c>
+      <c r="AC21">
+        <v>842</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="2"/>
+        <v>1951.8053681710212</v>
+      </c>
+      <c r="AE21">
+        <v>318</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="3"/>
+        <v>2003.4245911949683</v>
+      </c>
+      <c r="AG21">
+        <v>319</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="4"/>
+        <v>1994.5335109717869</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="Z23">
+        <f>Z2/1000*9.8/0.171491</f>
+        <v>6.2051645173211503</v>
+      </c>
+      <c r="AB23">
+        <f>AB2/1000*9.8/0.171491</f>
+        <v>4.7145779444665301</v>
+      </c>
+      <c r="AD23">
+        <f>AD2/1000*9.8/0.171491</f>
+        <v>6.2051645173211503</v>
+      </c>
+      <c r="AF23">
+        <f>AF2/1000*9.8/0.171491</f>
+        <v>5.818100141692355</v>
+      </c>
+      <c r="AH23">
+        <f>AH2/1000*9.8/0.171491</f>
+        <v>5.7076329577493521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="Z24">
+        <f t="shared" ref="Z24:Z42" si="5">Z3/1000*9.8/0.171491</f>
+        <v>11.746709032705123</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" ref="AB24:AB42" si="6">AB3/1000*9.8/0.171491</f>
+        <v>12.256501051895127</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" ref="AD24:AD42" si="7">AD3/1000*9.8/0.171491</f>
+        <v>11.746709032705123</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" ref="AF24:AF42" si="8">AF3/1000*9.8/0.171491</f>
+        <v>11.992768747061433</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" ref="AH24:AH42" si="9">AH3/1000*9.8/0.171491</f>
+        <v>11.582305701997289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="Z25">
+        <f t="shared" si="5"/>
+        <v>16.890694768507881</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="6"/>
+        <v>16.371652677212236</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="7"/>
+        <v>17.931912001952057</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="8"/>
+        <v>16.593396675569927</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="9"/>
+        <v>17.567144032894628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="Z26">
+        <f t="shared" si="5"/>
+        <v>23.734341304909552</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="6"/>
+        <v>22.669714682456441</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="7"/>
+        <v>23.734341304909552</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="8"/>
+        <v>22.531709924524705</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="9"/>
+        <v>23.30336872198578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="Z27">
+        <f t="shared" si="5"/>
+        <v>29.123124568611082</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="6"/>
+        <v>27.494894871412743</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="7"/>
+        <v>27.494894871412743</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="8"/>
+        <v>28.315173282815419</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="9"/>
+        <v>27.650286071917034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="Z28">
+        <f t="shared" si="5"/>
+        <v>34.623824410998004</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="6"/>
+        <v>34.068618918607712</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="7"/>
+        <v>35.180184176761259</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="8"/>
+        <v>34.7418852614272</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="9"/>
+        <v>35.005778429876493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="Z29">
+        <f t="shared" si="5"/>
+        <v>37.417238266239387</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="6"/>
+        <v>40.239963914295458</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="7"/>
+        <v>40.239963914295458</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="8"/>
+        <v>39.031590682001152</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="9"/>
+        <v>40.212161366522466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="Z30">
+        <f t="shared" si="5"/>
+        <v>45.396222502757226</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="6"/>
+        <v>47.136893574242904</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="7"/>
+        <v>46.555437986315631</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="8"/>
+        <v>46.119039461917161</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="9"/>
+        <v>46.978780955097605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -4514,8 +9111,28 @@
       <c r="F31" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="Z31">
+        <f t="shared" si="5"/>
+        <v>52.426143010345292</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="6"/>
+        <v>51.241945123271229</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="7"/>
+        <v>53.020149898920586</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="8"/>
+        <v>53.07421380713857</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="9"/>
+        <v>50.956934709393302</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>100</v>
       </c>
@@ -4534,8 +9151,28 @@
       <c r="F32">
         <v>967</v>
       </c>
+      <c r="Z32">
+        <f t="shared" si="5"/>
+        <v>56.00942862544418</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="6"/>
+        <v>56.611162353961689</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="7"/>
+        <v>56.611162353961689</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="8"/>
+        <v>57.809062341583235</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="9"/>
+        <v>57.809062341583235</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>200</v>
       </c>
@@ -4554,8 +9191,28 @@
       <c r="F33">
         <v>871</v>
       </c>
+      <c r="Z33">
+        <f t="shared" si="5"/>
+        <v>62.700839213056902</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="6"/>
+        <v>64.5537836520908</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="7"/>
+        <v>63.317135831728997</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="8"/>
+        <v>63.011299357968788</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="9"/>
+        <v>63.488041093540851</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>300</v>
       </c>
@@ -4574,8 +9231,28 @@
       <c r="F34">
         <v>791</v>
       </c>
+      <c r="Z34">
+        <f t="shared" si="5"/>
+        <v>68.925094566275746</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="6"/>
+        <v>68.925094566275746</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="7"/>
+        <v>67.043422656079073</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="8"/>
+        <v>68.230817865175752</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="9"/>
+        <v>68.230817865175752</v>
+      </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>400</v>
       </c>
@@ -4594,8 +9271,28 @@
       <c r="F35">
         <v>727</v>
       </c>
+      <c r="Z35">
+        <f t="shared" si="5"/>
+        <v>74.004420005022894</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="6"/>
+        <v>75.93260352937952</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="7"/>
+        <v>74.645713186114719</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="8"/>
+        <v>74.254740384131708</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="9"/>
+        <v>70.081879984170001</v>
+      </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>500</v>
       </c>
@@ -4614,8 +9311,28 @@
       <c r="F36">
         <v>685</v>
       </c>
+      <c r="Z36">
+        <f t="shared" si="5"/>
+        <v>81.795588686490987</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="6"/>
+        <v>79.828055379262139</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="7"/>
+        <v>79.828055379262139</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="8"/>
+        <v>82.234678962597513</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="9"/>
+        <v>79.98519323041576</v>
+      </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>600</v>
       </c>
@@ -4634,8 +9351,28 @@
       <c r="F37">
         <v>624</v>
       </c>
+      <c r="Z37">
+        <f t="shared" si="5"/>
+        <v>85.770946085397085</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="6"/>
+        <v>85.770946085397085</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="7"/>
+        <v>84.439810520496636</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="8"/>
+        <v>83.890641491390227</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="9"/>
+        <v>85.246140715989625</v>
+      </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>700</v>
       </c>
@@ -4654,8 +9391,28 @@
       <c r="F38">
         <v>587</v>
       </c>
+      <c r="Z38">
+        <f t="shared" si="5"/>
+        <v>91.836793150969299</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="6"/>
+        <v>91.836793150969299</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="7"/>
+        <v>91.156619714225059</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="8"/>
+        <v>90.588188598459027</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="9"/>
+        <v>89.122077490838791</v>
+      </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>800</v>
       </c>
@@ -4674,8 +9431,28 @@
       <c r="F39">
         <v>545</v>
       </c>
+      <c r="Z39">
+        <f t="shared" si="5"/>
+        <v>94.573195291404474</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="6"/>
+        <v>95.261250164866524</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="7"/>
+        <v>95.950897757943011</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="8"/>
+        <v>95.976861597080003</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="9"/>
+        <v>97.186718155157223</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>900</v>
       </c>
@@ -4694,8 +9471,28 @@
       <c r="F40">
         <v>523</v>
       </c>
+      <c r="Z40">
+        <f t="shared" si="5"/>
+        <v>103.64374283194434</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="6"/>
+        <v>100.82349539630749</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="7"/>
+        <v>103.64374283194434</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="8"/>
+        <v>102.67398788941027</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="9"/>
+        <v>102.67398788941027</v>
+      </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1000</v>
       </c>
@@ -4714,8 +9511,28 @@
       <c r="F41">
         <v>489</v>
       </c>
+      <c r="Z41">
+        <f>Z20/1000*9.8/0.171491</f>
+        <v>107.92405933549944</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="6"/>
+        <v>107.92405933549944</v>
+      </c>
+      <c r="AD41">
+        <f>AD20/1000*9.8/0.171491</f>
+        <v>108.64334814115989</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="8"/>
+        <v>109.54594388868591</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="9"/>
+        <v>109.54594388868591</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1100</v>
       </c>
@@ -4734,8 +9551,28 @@
       <c r="F42">
         <v>464</v>
       </c>
+      <c r="Z42">
+        <f t="shared" si="5"/>
+        <v>113.72637952228131</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="6"/>
+        <v>115.93087946166719</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="7"/>
+        <v>111.53758860859176</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="8"/>
+        <v>114.48741329697005</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="9"/>
+        <v>113.97932490640039</v>
+      </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1200</v>
       </c>
@@ -4755,7 +9592,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1300</v>
       </c>
@@ -4775,7 +9612,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1400</v>
       </c>
@@ -4795,7 +9632,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1500</v>
       </c>
@@ -4815,7 +9652,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1600</v>
       </c>
@@ -4835,7 +9672,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1700</v>
       </c>
